--- a/Datos/Database by set/Set with text box/Xlsx sets/World Magic Cup Qualifiers (PWCQ).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/World Magic Cup Qualifiers (PWCQ).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,189 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Abrupt Decay</t>
+          <t>('Abrupt Decay', ['{B}{G}', 'Instant', 'This spell can’t be countered.', 'Destroy target nonland permanent with converted mana cost 3 or less.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{B}{G}</t>
+          <t>('Geist of Saint Traft', ['{1}{W}{U}', 'Legendary Creature — Spirit Cleric', 'Hexproof (This creature can’t be the target of spells or abilities your opponents control.)', 'Whenever Geist of Saint Traft attacks, create a 4/4 white Angel creature token with flying that’s tapped and attacking. Exile that token at end of combat.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Inkmoth Nexus', ['Land', '{T}: Add {C}.', '{1}: Inkmoth Nexus becomes a 1/1 Blinkmoth artifact creature with flying and infect until end of turn. It’s still a land. (It deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>This spell can’t be countered.</t>
+          <t>('Thalia, Guardian of Thraben', ['{1}{W}', 'Legendary Creature — Human Soldier', 'First strike', 'Noncreature spells cost {1} more to cast.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Destroy target nonland permanent with converted mana cost 3 or less.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Geist of Saint Traft</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{1}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Spirit Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hexproof (This creature can’t be the target of spells or abilities your opponents control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Whenever Geist of Saint Traft attacks, create a 4/4 white Angel creature token with flying that’s tapped and attacking. Exile that token at end of combat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inkmoth Nexus</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}: Inkmoth Nexus becomes a 1/1 Blinkmoth artifact creature with flying and infect until end of turn. It’s still a land. (It deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Thalia, Guardian of Thraben</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>First strike</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Noncreature spells cost {1} more to cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Vengevine</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Whenever you cast a spell, if it’s the second creature spell you cast this turn, you may return Vengevine from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4/3</t>
+          <t>('Vengevine', ['{2}{G}{G}', 'Creature — Elemental', 'Haste', 'Whenever you cast a spell, if it’s the second creature spell you cast this turn, you may return Vengevine from your graveyard to the battlefield.', '4/3'])</t>
         </is>
       </c>
     </row>
